--- a/lab1_student.xlsx
+++ b/lab1_student.xlsx
@@ -132,9 +132,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-2809]* #,##0.00_-;\-[$$-2809]* #,##0.00_-;_-[$$-2809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-2809]* #,##0.00_-;\-[$$-2809]* #,##0.00_-;_-[$$-2809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -255,58 +255,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -331,498 +311,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Заработная плата сотрудников предприятия</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Сумма к выдаче, руб</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet!$B$5:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Морозов И.Р.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Коробова П.Н</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ромашова П.Т.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Петров Г.Т.</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Соколова О.С.</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Иванов И.М.</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Смирнов С.И.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$I$5:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.00\ "₽"</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>20880</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2088</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10440</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3340.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57420</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D56E-439D-956E-A382C417DFCC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="763654464"/>
-        <c:axId val="763655296"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="763654464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1200"/>
-                  <a:t>ФИО</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.84271836195914107"/>
-              <c:y val="0.81160221638961794"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="763655296"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="763655296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1200"/>
-                  <a:t>руб</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.10739445288637167"/>
-              <c:y val="1.4093265163800417E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#\ ##0.00\ &quot;₽&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="763654464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1041,9 +529,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -1163,48 +649,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1261,7 +707,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1312,6 +758,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1322,12 +775,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1365,523 +825,6 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2227,36 +1170,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>167368</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>172811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>982436</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>58510</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2281,7 +1194,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2577,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,16 +1505,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2622,7 +1535,7 @@
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2645,29 +1558,29 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>20000</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <f>0.2*E5</f>
         <v>4000</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <f>F5+E5</f>
         <v>24000</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f>G5*0.13</f>
         <v>3120</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <f>G5-H5</f>
         <v>20880</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <f>I5/$C$14</f>
         <v>435</v>
       </c>
@@ -2682,29 +1595,29 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>32000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <f>0.2*E6</f>
         <v>6400</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <f>F6+   E6</f>
         <v>38400</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f t="shared" ref="H6:H11" si="0">G6*0.13</f>
         <v>4992</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <f t="shared" ref="I6:I11" si="1">G6-H6</f>
         <v>33408</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <f t="shared" ref="J6:J11" si="2">I6/$C$14</f>
         <v>696</v>
       </c>
@@ -2719,29 +1632,29 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <f t="shared" ref="F7:F11" si="3">0.2*E7</f>
         <v>400</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" ref="G6:G11" si="4">F7+E7</f>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7:G11" si="4">F7+E7</f>
         <v>2400</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>2088</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <f t="shared" si="2"/>
         <v>43.5</v>
       </c>
@@ -2756,29 +1669,29 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>10000</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>1560</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <f t="shared" si="1"/>
         <v>10440</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <f t="shared" si="2"/>
         <v>217.5</v>
       </c>
@@ -2793,29 +1706,29 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>50000</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <f t="shared" si="4"/>
         <v>60000</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>7800</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>52200</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <f t="shared" si="2"/>
         <v>1087.5</v>
       </c>
@@ -2830,29 +1743,29 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>3200</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <f t="shared" si="3"/>
         <v>640</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <f t="shared" si="4"/>
         <v>3840</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>499.20000000000005</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>3340.8</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <f t="shared" si="2"/>
         <v>69.600000000000009</v>
       </c>
@@ -2867,47 +1780,47 @@
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>55000</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <f t="shared" si="3"/>
         <v>11000</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <f t="shared" si="4"/>
         <v>66000</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>8580</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
         <v>57420</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <f t="shared" si="2"/>
         <v>1196.25</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <f>SUM(G5:G11)</f>
         <v>206640</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <f>SUM(H5:H11)</f>
         <v>26863.200000000001</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <f>SUM(I5:I11)</f>
         <v>179776.8</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <f>SUM(J5:J11)</f>
         <v>3745.35</v>
       </c>
@@ -2924,7 +1837,7 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <f>AVERAGE(I5:I11)</f>
         <v>25682.399999999998</v>
       </c>
@@ -2933,7 +1846,7 @@
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <f>MAX(I5:I11)</f>
         <v>57420</v>
       </c>
@@ -2942,7 +1855,7 @@
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <f>MIN(I5:I11)</f>
         <v>2088</v>
       </c>
